--- a/ZR_Ausgangswelle.xlsx
+++ b/ZR_Ausgangswelle.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Desktop\Getriebebeleg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A83FF79-BB2C-4BCE-B031-327446D70A72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AF8092-C329-4D64-A544-78D2D5A22869}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{926A924D-D7AC-4402-ACA1-82EB8F8A49D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{926A924D-D7AC-4402-ACA1-82EB8F8A49D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Tabelle1!$G$14</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Tabelle1!$C$21</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -30,7 +30,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Tabelle1!$P$24</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Tabelle1!$C$43</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -40,8 +40,8 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1645,7 +1645,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1670,6 +1669,7 @@
     <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1993,7 +1993,7 @@
   <dimension ref="A2:XEW75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2006,7 +2006,7 @@
     <col min="8" max="15" width="10.90625" style="1"/>
     <col min="16" max="16" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.90625" style="1"/>
-    <col min="18" max="18" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
@@ -2014,7 +2014,7 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2024,13 +2024,13 @@
       </c>
     </row>
     <row r="6" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>97</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="G6" s="5">
         <f>C7*1000/(2*PI()*C8/60)</f>
-        <v>1187.0804777981971</v>
+        <v>1221.1186276992205</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>6</v>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="G7" s="6">
         <f>C10/C9</f>
-        <v>2.7142857142857144</v>
+        <v>2.6774193548387095</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -2073,8 +2073,8 @@
         <v>4</v>
       </c>
       <c r="C8" s="7">
-        <f>(950*21)/62</f>
-        <v>321.77419354838707</v>
+        <f>950*27/82</f>
+        <v>312.80487804878049</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>16</v>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="G8" s="5">
         <f>(G7-C11)*100/C11</f>
-        <v>1.785714285714296</v>
+        <v>0.40322580645161255</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>12</v>
@@ -2095,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7"/>
       <c r="G9" s="5"/>
@@ -2105,7 +2105,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7"/>
       <c r="F10" s="2" t="s">
@@ -2113,17 +2113,17 @@
       </c>
       <c r="G10" s="6">
         <f>POWER((5*C6*G6*1000*COS(C12*PI()/180)*COS(C12*PI()/180)*C13)/(C9*C9*C17*C15),1/3)</f>
-        <v>4.7398541076623859</v>
-      </c>
-      <c r="H10" s="29" t="s">
+        <v>3.4029628638565521</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
       <c r="O10" s="1" t="s">
         <v>103</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>14</v>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="G12" s="5">
         <f>(75*POWER((C6*1000*G6*(1+G7)*C14*C14)/(C17*G7*C16*C16),1/3))/C9</f>
-        <v>4.2721982554799434</v>
+        <v>2.6848132359401529</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>20</v>
@@ -2183,13 +2183,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="17">
-        <v>5</v>
-      </c>
-      <c r="H14" s="17" t="s">
+      <c r="G14" s="16">
+        <v>3</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="31" t="s">
@@ -2197,92 +2197,92 @@
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19" t="s">
+      <c r="N14" s="17"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19" t="s">
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="S14" s="19"/>
-      <c r="T14" s="20"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="19"/>
     </row>
     <row r="15" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="7">
-        <v>315</v>
+        <v>430</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>98</v>
       </c>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="23"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="22"/>
     </row>
     <row r="16" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="7">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>98</v>
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="27">
+      <c r="O16" s="21"/>
+      <c r="P16" s="26">
         <f>G54</f>
-        <v>2.0017129660950173</v>
-      </c>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27">
+        <v>1.4326418472271263</v>
+      </c>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26">
         <f>G57</f>
-        <v>2.1790799377743224</v>
-      </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="23"/>
+        <v>1.4435226713832814</v>
+      </c>
+      <c r="S16" s="21"/>
+      <c r="T16" s="22"/>
     </row>
     <row r="17" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B17" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C17" s="7">
-        <v>0.61770000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="D17" s="7"/>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="23"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="22"/>
     </row>
     <row r="18" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="s">
@@ -2294,63 +2294,62 @@
       <c r="D18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="N18" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="O18" s="22"/>
+      <c r="O18" s="21"/>
       <c r="P18" s="32">
         <f>G61</f>
-        <v>1.3630155889356708</v>
+        <v>1.3129725094356566</v>
       </c>
       <c r="Q18" s="32"/>
       <c r="R18" s="32"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="23"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="22"/>
     </row>
     <row r="19" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B19" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="7">
-        <f>210000</f>
         <v>210000</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="23"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="22"/>
     </row>
     <row r="20" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B20" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>210000</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="O20" s="22"/>
-      <c r="P20" s="28">
+      <c r="O20" s="21"/>
+      <c r="P20" s="27">
         <f>(2*G6*1000)/C39</f>
-        <v>21508.078343381971</v>
-      </c>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28">
+        <v>25660.373006029698</v>
+      </c>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27">
         <f>(2*G6*1000)/G39</f>
-        <v>7924.0288633512528</v>
-      </c>
-      <c r="S20" s="22"/>
-      <c r="T20" s="23" t="s">
+        <v>9583.994737191817</v>
+      </c>
+      <c r="S20" s="21"/>
+      <c r="T20" s="22" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2359,18 +2358,18 @@
         <v>51</v>
       </c>
       <c r="C21" s="7">
-        <v>61</v>
+        <v>54.5</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="23"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="22"/>
     </row>
     <row r="22" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B22" s="4" t="s">
@@ -2378,37 +2377,37 @@
       </c>
       <c r="C22" s="1">
         <f>C17*C34</f>
-        <v>67.146460147127371</v>
+        <v>56.660804943224576</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="N22" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="O22" s="22"/>
-      <c r="P22" s="28">
+      <c r="O22" s="21"/>
+      <c r="P22" s="27">
         <f>P20*TAN(C28*PI()/180)</f>
-        <v>9063.2965944923053</v>
-      </c>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28">
+        <v>10086.007424685389</v>
+      </c>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27">
         <f>R20*TAN(C28*PI()/180)</f>
-        <v>3339.1092716550602</v>
-      </c>
-      <c r="S22" s="22"/>
-      <c r="T22" s="23" t="s">
+        <v>3767.0630140391222</v>
+      </c>
+      <c r="S22" s="21"/>
+      <c r="T22" s="22" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="N23" s="21"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="23"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="22"/>
     </row>
     <row r="24" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
@@ -2416,7 +2415,7 @@
       </c>
       <c r="C24" s="1">
         <f>((C25)/(2))*(C9+C10)</f>
-        <v>201.87885517996617</v>
+        <v>173.63795063246241</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>20</v>
@@ -2425,26 +2424,26 @@
         <v>25</v>
       </c>
       <c r="G24" s="7">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="O24" s="22"/>
-      <c r="P24" s="28">
+      <c r="O24" s="21"/>
+      <c r="P24" s="27">
         <f>P20*TAN(C12*PI()/180)</f>
-        <v>5763.0722228545183</v>
-      </c>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28">
+        <v>4524.6160960062143</v>
+      </c>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27">
         <f>R20*TAN(C12*PI()/180)</f>
-        <v>2123.2371347358753</v>
-      </c>
-      <c r="S24" s="22"/>
-      <c r="T24" s="23" t="s">
+        <v>1689.9168551348514</v>
+      </c>
+      <c r="S24" s="21"/>
+      <c r="T24" s="22" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2454,18 +2453,18 @@
       </c>
       <c r="C25" s="1">
         <f>G14/COS(C12*PI()/180)</f>
-        <v>5.1763809020504148</v>
+        <v>3.0462798356572351</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="24"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="26"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="25"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
@@ -2473,7 +2472,7 @@
       </c>
       <c r="C26" s="2">
         <f>(C9+C10)*((TAN(C28*PI()/180)-(C28*PI()/180))-(TAN(C27*PI()/180)-(C27*PI()/180)))/(2*TAN(C18*PI()/180))</f>
-        <v>0.65659154458087265</v>
+        <v>0.46671618000957976</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>20</v>
@@ -2485,7 +2484,7 @@
       </c>
       <c r="C27" s="1">
         <f>ATAN((TAN(C18*PI()/180))/COS(C12*PI()/180))*180/PI()</f>
-        <v>20.646896487046472</v>
+        <v>20.283559454529712</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
@@ -2497,7 +2496,7 @@
       </c>
       <c r="C28" s="1">
         <f>ACOS(COS(C27*PI()/180)*C24/G24)*180/PI()</f>
-        <v>22.850088024074886</v>
+        <v>21.457690793700312</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
@@ -2509,7 +2508,7 @@
       </c>
       <c r="C29" s="1">
         <f>((G24-C24)/G14)-C26</f>
-        <v>-3.2362580574105904E-2</v>
+        <v>-1.269972416371512E-2</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
@@ -2527,7 +2526,7 @@
       </c>
       <c r="L31" s="1">
         <f>0.5*C26+(0.5-(C26)/(2))*(LOG10(C10/C9))/(C10*C9/100)</f>
-        <v>0.33451636487046266</v>
+        <v>0.23779054695945209</v>
       </c>
     </row>
     <row r="32" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
@@ -2536,14 +2535,14 @@
       </c>
       <c r="C32" s="1">
         <f>C9</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="1">
         <f>C10</f>
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
@@ -2552,14 +2551,14 @@
       </c>
       <c r="C33" s="1">
         <f>C32/POWER(COS(C12*PI()/180),3)</f>
-        <v>23.301718984660958</v>
+        <v>32.456920886469128</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G33" s="1">
         <f>G32/POWER(COS(C12*PI()/180),3)</f>
-        <v>63.247522958365451</v>
+        <v>86.900788179901227</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
@@ -2568,7 +2567,7 @@
       </c>
       <c r="C34" s="1">
         <f>C25*C32</f>
-        <v>108.70399894305871</v>
+        <v>94.434674905374294</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>20</v>
@@ -2578,7 +2577,7 @@
       </c>
       <c r="G34" s="1">
         <f>G32*C25</f>
-        <v>295.05371141687363</v>
+        <v>252.84122635955052</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>20</v>
@@ -2589,7 +2588,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="7">
-        <v>3.3000000000000002E-2</v>
+        <v>0.23779054999999999</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>20</v>
@@ -2599,7 +2598,7 @@
       </c>
       <c r="G35" s="1">
         <f>C26-C35</f>
-        <v>0.62359154458087263</v>
+        <v>0.22892563000957977</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>20</v>
@@ -2611,7 +2610,7 @@
       </c>
       <c r="C36" s="1">
         <f>C34+2*G14*(1+C35+C29)</f>
-        <v>118.71037313731765</v>
+        <v>101.785219860392</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>20</v>
@@ -2621,7 +2620,7 @@
       </c>
       <c r="G36" s="1">
         <f>G34+2*G14*(1+G35+C29)</f>
-        <v>310.96600105694131</v>
+        <v>260.13858179462568</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>20</v>
@@ -2633,7 +2632,7 @@
       </c>
       <c r="C37" s="1">
         <f>C34*COS(C27*PI()/180)</f>
-        <v>101.7220759378921</v>
+        <v>88.578633990186148</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>20</v>
@@ -2643,7 +2642,7 @@
       </c>
       <c r="G37" s="1">
         <f>G34*COS(C27*PI()/180)</f>
-        <v>276.10277754570711</v>
+        <v>237.16214907049837</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>20</v>
@@ -2655,7 +2654,7 @@
       </c>
       <c r="C38" s="1">
         <f>C34-2*G14*(1.25-C35)</f>
-        <v>96.533998943058705</v>
+        <v>88.361418205374292</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>20</v>
@@ -2665,7 +2664,7 @@
       </c>
       <c r="G38" s="1">
         <f>G34-2*G14*(1.25-G35)</f>
-        <v>288.78962686268233</v>
+        <v>246.714780139608</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>20</v>
@@ -2677,7 +2676,7 @@
       </c>
       <c r="C39" s="1">
         <f>C34*(COS(C27*PI()/180))/(COS(C28*PI()/180))</f>
-        <v>110.38461538461539</v>
+        <v>95.175438596491247</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>20</v>
@@ -2687,7 +2686,7 @@
       </c>
       <c r="G39" s="1">
         <f>G34*(COS(C27*PI()/180))/(COS(C28*PI()/180))</f>
-        <v>299.61538461538458</v>
+        <v>254.82456140350877</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>20</v>
@@ -2699,14 +2698,14 @@
       </c>
       <c r="C41" s="1">
         <f>(0.5*(SQRT(C36*C36-C37*C37)+SQRT(G36*G36-G37*G37))-G24*SIN(C28*PI()/180))/(PI()*C25*COS(C27*PI()/180))</f>
-        <v>1.4800672309714773</v>
-      </c>
-      <c r="D41" s="11" t="s">
+        <v>1.6152262479573882</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="30">
         <f>(C41-1)</f>
-        <v>0.4800672309714773</v>
+        <v>0.61522624795738823</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>48</v>
@@ -2718,7 +2717,7 @@
       </c>
       <c r="C43" s="1">
         <f>(C21*SIN(C12*PI()/180))/(PI()*G14)</f>
-        <v>1.0050928616231252</v>
+        <v>1.0041430919901626</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>53</v>
@@ -2730,7 +2729,7 @@
       </c>
       <c r="C45" s="1" cm="1">
         <f t="array" ref="C45">C41+_xlfn.ANCHORARRAY(C43)</f>
-        <v>2.4851600925946027</v>
+        <v>2.6193693399475508</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.35">
@@ -2744,7 +2743,7 @@
       </c>
       <c r="C49" s="1">
         <f>(2*G6)/(C34/1000)</f>
-        <v>21840.603645501822</v>
+        <v>25861.657890447746</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>58</v>
@@ -2756,7 +2755,7 @@
       </c>
       <c r="C52" s="1">
         <f>2*C15</f>
-        <v>630</v>
+        <v>860</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>19</v>
@@ -2771,17 +2770,17 @@
       </c>
       <c r="C54" s="1">
         <f>C55*C6*C66*C69*C70</f>
-        <v>314.73043871470588</v>
+        <v>600.28959901215171</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="14">
         <f>C52/C54</f>
-        <v>2.0017129660950173</v>
+        <v>1.4326418472271263</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2" t="s">
@@ -2794,19 +2793,19 @@
       </c>
       <c r="C55" s="1">
         <f>(C49)/(C21*G14)*C72*C74*C75</f>
-        <v>195.80879681633274</v>
+        <v>405.08885359341701</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="14"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:1017 1025:2041 2049:3065 3073:4089 4097:5113 5121:6137 6145:7161 7169:8185 8193:9209 9217:10233 10241:11257 11265:12281 12289:13305 13313:14329 14337:15353 15361:16377" x14ac:dyDescent="0.35">
-      <c r="F56" s="16"/>
-      <c r="G56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="14"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
@@ -2816,17 +2815,17 @@
       </c>
       <c r="C57" s="1">
         <f>C58*C6*C66*C69*C70</f>
-        <v>289.11284486583452</v>
+        <v>595.76480303969845</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="14">
         <f>C52/C57</f>
-        <v>2.1790799377743224</v>
+        <v>1.4435226713832814</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2" t="s">
@@ -2839,20 +2838,20 @@
       </c>
       <c r="C58" s="1">
         <f>(C49)/(C21*G14)*C73*C74*C75</f>
-        <v>179.87087149407313</v>
+        <v>402.03542002361746</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="14"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:1017 1025:2041 2049:3065 3073:4089 4097:5113 5121:6137 6145:7161 7169:8185 8193:9209 9217:10233 10241:11257 11265:12281 12289:13305 13313:14329 14337:15353 15361:16377" x14ac:dyDescent="0.35">
       <c r="B59" s="4"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="14"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
@@ -2863,13 +2862,13 @@
       </c>
       <c r="C60" s="1">
         <f>C16</f>
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="14"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="Q60" s="4"/>
@@ -4922,12 +4921,12 @@
     <row r="61" spans="1:1017 1025:2041 2049:3065 3073:4089 4097:5113 5121:6137 6145:7161 7169:8185 8193:9209 9217:10233 10241:11257 11265:12281 12289:13305 13313:14329 14337:15353 15361:16377" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="F61" s="16" t="s">
+      <c r="F61" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="14">
         <f>C60/C62</f>
-        <v>1.3630155889356708</v>
+        <v>1.3129725094356566</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -6985,7 +6984,7 @@
       </c>
       <c r="C62" s="1">
         <f>C63*SQRT(C6*C66*L70*G66)</f>
-        <v>953.76752148163075</v>
+        <v>1142.4458541365286</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>19</v>
@@ -9046,7 +9045,7 @@
       </c>
       <c r="C63" s="1">
         <f>L66*L67*L68*L69*SQRT((C49*(G7+1))/(C34*C21*G7))</f>
-        <v>752.29687055852241</v>
+        <v>938.4915428379993</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>19</v>
@@ -11107,31 +11106,31 @@
       </c>
       <c r="C66" s="1">
         <f>1+(C67/(C6*C49/C21)+C68)*C9*((C34/1000*PI()*(C8)/(60))/(100))*SQRT((G7*G7)/(1+G7*G7))</f>
-        <v>1.0157619064012882</v>
+        <v>1.011049994578699</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G66" s="1">
         <f>1+(10*G67)/(G74)</f>
-        <v>1.4385399970254995</v>
+        <v>1.3324324744205798</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L66" s="1">
         <f>SQRT((2*COS(C12*PI()/180)*COS(C28*PI()/180))/(POWER(COS(C27*PI()/180),2)*SIN(C28*PI()/180)))</f>
-        <v>2.2880994770804168</v>
+        <v>2.3865200047037045</v>
       </c>
     </row>
     <row r="67" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="12">
-        <v>9.6</v>
-      </c>
-      <c r="D67" s="12" t="s">
+      <c r="C67" s="11">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -11153,13 +11152,13 @@
       </c>
     </row>
     <row r="68" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="12">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="D68" s="12" t="s">
+      <c r="C68" s="11">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -11177,29 +11176,29 @@
       </c>
       <c r="L68" s="1">
         <f>IF(C12=0,SQRT((4-C41)/(3)),IF(C43&gt;=1,SQRT(1/C41),SQRT((4-C41)/(3)*(1-C43)+(C43/C41))))</f>
-        <v>0.82197626705537119</v>
+        <v>0.78683436284665598</v>
       </c>
     </row>
     <row r="69" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="11">
         <v>1</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="11">
         <v>8</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="H69" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I69" s="12" t="str">
+      <c r="I69" s="11" t="str">
         <f>I71</f>
         <v xml:space="preserve"> II 10/9</v>
       </c>
@@ -11208,7 +11207,7 @@
       </c>
       <c r="L69" s="1">
         <f>SQRT(COS(C12*PI()/180))</f>
-        <v>0.98281525542141857</v>
+        <v>0.99237480470445638</v>
       </c>
     </row>
     <row r="70" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
@@ -11217,7 +11216,7 @@
       </c>
       <c r="C70" s="1">
         <f>IF(G66&lt;=2,G66,2)</f>
-        <v>1.4385399970254995</v>
+        <v>1.3324324744205798</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>73</v>
@@ -11229,38 +11228,38 @@
       <c r="H70" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K70" s="12" t="s">
+      <c r="K70" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L70" s="12">
+      <c r="L70" s="11">
         <v>1</v>
       </c>
-      <c r="M70" s="12" t="s">
+      <c r="M70" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="71" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="11">
         <v>10</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="H71" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I71" s="12" t="s">
+      <c r="I71" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="12">
-        <v>4.3</v>
-      </c>
-      <c r="D72" s="12" t="s">
+      <c r="C72" s="11">
+        <v>3.98</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -11275,13 +11274,13 @@
       </c>
     </row>
     <row r="73" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="11">
         <v>3.95</v>
       </c>
-      <c r="D73" s="12" t="str">
+      <c r="D73" s="11" t="str">
         <f>D72</f>
         <v>II 10/10</v>
       </c>
@@ -11293,14 +11292,14 @@
       </c>
       <c r="C74" s="1">
         <f>0.25+0.75*(POWER(COS(ATAN(TAN(C12*PI()/180)*COS(C27*PI()/180))),2)/(C41))</f>
-        <v>0.72675979215031228</v>
+        <v>0.70196777691943957</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G74" s="1">
         <f>C66*C6*C49/C21</f>
-        <v>400.05472976230891</v>
+        <v>527.74627480599452</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>79</v>
@@ -11312,7 +11311,7 @@
       </c>
       <c r="C75" s="1">
         <f>1-(IF(C43&gt;1,1,C43))*(IF(C12&gt;30,30,C12))/(120)</f>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
   </sheetData>
